--- a/biology/Médecine/Cyclophiline_C/Cyclophiline_C.xlsx
+++ b/biology/Médecine/Cyclophiline_C/Cyclophiline_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cyclophiline C est une protéine appartenant à la famille des cyclophilines ayant une activité de Peptidyl prolyl isomérase. Son gène est le PPIC situé sur le chromosome 5 humain.
-Il est essentiellement exprimé au niveau des reins[5].
+Il est essentiellement exprimé au niveau des reins.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres peptidyl prolyl isomérases, elle permet la transformation de certaines protéines de la forme trans à la forme cis, modulant leur activité[6].
-Elle se lie à une glycoprotéine de 77 Kdaltons, appelée le CyCAP (« cyclophilin C associated protein », son mode d'action nécessitant cette liaison[7]. Elle active alors la fonction phagocytaire des macrophages[6] et diminue la réaction inflammatoire[8]. 
-Elle intervient dans la dégradation de l'ADN et dans l'apoptose[9].
-La liaison avec le CyCAP est inhibée par la cyclosporine A qui inactive l'action de la cyclophiline C[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres peptidyl prolyl isomérases, elle permet la transformation de certaines protéines de la forme trans à la forme cis, modulant leur activité.
+Elle se lie à une glycoprotéine de 77 Kdaltons, appelée le CyCAP (« cyclophilin C associated protein », son mode d'action nécessitant cette liaison. Elle active alors la fonction phagocytaire des macrophages et diminue la réaction inflammatoire. 
+Elle intervient dans la dégradation de l'ADN et dans l'apoptose.
+La liaison avec le CyCAP est inhibée par la cyclosporine A qui inactive l'action de la cyclophiline C.
 </t>
         </is>
       </c>
